--- a/MESWebApi/Template/岗位物料.xlsx
+++ b/MESWebApi/Template/岗位物料.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>生产线</t>
   </si>
@@ -213,54 +213,6 @@
   <si>
     <t>A</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>100062854</t>
@@ -404,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -447,10 +399,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -760,7 +715,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -826,11 +781,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="27">
-      <c r="A2" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>48</v>
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17">
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -839,7 +794,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>17</v>
@@ -859,11 +814,11 @@
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" ht="14.25">
-      <c r="A3" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>49</v>
+      <c r="A3" s="18">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18">
+        <v>24</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>18</v>
@@ -871,8 +826,8 @@
       <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>61</v>
+      <c r="E3" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>20</v>
@@ -892,11 +847,11 @@
       <c r="O3" s="8"/>
     </row>
     <row r="4" spans="1:15" ht="14.25">
-      <c r="A4" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>49</v>
+      <c r="A4" s="18">
+        <v>1</v>
+      </c>
+      <c r="B4" s="18">
+        <v>24</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>18</v>
@@ -904,8 +859,8 @@
       <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>60</v>
+      <c r="E4" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>23</v>
@@ -925,11 +880,11 @@
       <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="14.25">
-      <c r="A5" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>50</v>
+      <c r="A5" s="18">
+        <v>1</v>
+      </c>
+      <c r="B5" s="18">
+        <v>25</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>25</v>
@@ -937,8 +892,8 @@
       <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>59</v>
+      <c r="E5" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>26</v>
@@ -958,11 +913,11 @@
       <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:15" ht="27">
-      <c r="A6" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>51</v>
+      <c r="A6" s="18">
+        <v>1</v>
+      </c>
+      <c r="B6" s="18">
+        <v>25</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>29</v>
@@ -970,8 +925,8 @@
       <c r="D6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>58</v>
+      <c r="E6" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>31</v>
@@ -991,11 +946,11 @@
       <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15" ht="14.25">
-      <c r="A7" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>52</v>
+      <c r="A7" s="18">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18">
+        <v>24</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>33</v>
@@ -1003,8 +958,8 @@
       <c r="D7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>57</v>
+      <c r="E7" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>35</v>
@@ -1024,11 +979,11 @@
       <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15" ht="14.25">
-      <c r="A8" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>49</v>
+      <c r="A8" s="18">
+        <v>1</v>
+      </c>
+      <c r="B8" s="18">
+        <v>24</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>33</v>
@@ -1036,8 +991,8 @@
       <c r="D8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>56</v>
+      <c r="E8" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>38</v>
@@ -1057,11 +1012,11 @@
       <c r="O8" s="8"/>
     </row>
     <row r="9" spans="1:15" ht="14.25">
-      <c r="A9" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>53</v>
+      <c r="A9" s="18">
+        <v>1</v>
+      </c>
+      <c r="B9" s="18">
+        <v>25</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>29</v>
@@ -1069,8 +1024,8 @@
       <c r="D9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>55</v>
+      <c r="E9" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>26</v>
@@ -1090,11 +1045,11 @@
       <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:15" ht="28.5">
-      <c r="A10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>42</v>
+      <c r="A10" s="18">
+        <v>1</v>
+      </c>
+      <c r="B10" s="18">
+        <v>25</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>29</v>
@@ -1102,8 +1057,8 @@
       <c r="D10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>54</v>
+      <c r="E10" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>39</v>
